--- a/resources/table/enum.item.xlsx
+++ b/resources/table/enum.item.xlsx
@@ -2,36 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyeon\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B4EDF8-C1E6-4202-B9DD-4C77A5D9D0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424E7B62-6409-439E-B0CD-13A5D51DE444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{16E011AE-D02E-4FC8-8F56-7E58FFC8504B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="2" xr2:uid="{16E011AE-D02E-4FC8-8F56-7E58FFC8504B}"/>
   </bookViews>
   <sheets>
-    <sheet name="item_type" sheetId="1" r:id="rId1"/>
-    <sheet name="bundle_type" sheetId="2" r:id="rId2"/>
-    <sheet name="death_penalty" sheetId="3" r:id="rId3"/>
+    <sheet name="ITEM_TYPE" sheetId="1" r:id="rId1"/>
+    <sheet name="BUNDLE_TYPE" sheetId="2" r:id="rId2"/>
+    <sheet name="DEATH_PENALTY" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -40,50 +29,59 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
-    <t>stuff</t>
-  </si>
-  <si>
-    <t>consume</t>
-  </si>
-  <si>
-    <t>weapon</t>
-  </si>
-  <si>
-    <t>armor</t>
-  </si>
-  <si>
-    <t>helmet</t>
-  </si>
-  <si>
-    <t>ring</t>
-  </si>
-  <si>
-    <t>shield</t>
-  </si>
-  <si>
-    <t>auxiliary</t>
-  </si>
-  <si>
-    <t>bow</t>
-  </si>
-  <si>
-    <t>bundle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>destroy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none</t>
+    <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUNDLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PACKAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESTROY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSUME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARMOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HELMET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIELD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUXILIARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,13 +468,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF18F3C-64BA-4578-B1EB-62F11CEBE98C}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -556,15 +556,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B0CA35-8193-4C21-956C-3B80AB0B49C1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -596,15 +596,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD82176D-405E-4922-A91A-D7DD7C09FD38}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2</v>

--- a/resources/table/enum.item.xlsx
+++ b/resources/table/enum.item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyeon\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424E7B62-6409-439E-B0CD-13A5D51DE444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F53EA0-7BD1-4D1E-A56B-7CDED8351ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="2" xr2:uid="{16E011AE-D02E-4FC8-8F56-7E58FFC8504B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{16E011AE-D02E-4FC8-8F56-7E58FFC8504B}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM_TYPE" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF18F3C-64BA-4578-B1EB-62F11CEBE98C}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -544,6 +544,14 @@
       </c>
       <c r="B9">
         <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD82176D-405E-4922-A91A-D7DD7C09FD38}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/resources/table/enum.item.xlsx
+++ b/resources/table/enum.item.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyeon\fb\resources\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F53EA0-7BD1-4D1E-A56B-7CDED8351ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C2CF7F-318D-4552-9E10-3B6F031D4CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{16E011AE-D02E-4FC8-8F56-7E58FFC8504B}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{16E011AE-D02E-4FC8-8F56-7E58FFC8504B}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM_TYPE" sheetId="1" r:id="rId1"/>
-    <sheet name="BUNDLE_TYPE" sheetId="2" r:id="rId2"/>
-    <sheet name="DEATH_PENALTY" sheetId="3" r:id="rId3"/>
+    <sheet name="ITEM_ATTRIBUTE" sheetId="4" r:id="rId2"/>
+    <sheet name="WEAPON_TYPE" sheetId="5" r:id="rId3"/>
+    <sheet name="BUNDLE_TYPE" sheetId="2" r:id="rId4"/>
+    <sheet name="DEATH_PENALTY" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,13 +85,112 @@
   <si>
     <t>BOW</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>CONSUME</t>
+  </si>
+  <si>
+    <t>BUNDLE</t>
+  </si>
+  <si>
+    <t>SCRIPT</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>PACK</t>
+  </si>
+  <si>
+    <t>EQUIPMENT</t>
+  </si>
+  <si>
+    <t>WEAPON</t>
+  </si>
+  <si>
+    <t>ARMOR</t>
+  </si>
+  <si>
+    <t>SHIELD</t>
+  </si>
+  <si>
+    <t>HELMET</t>
+  </si>
+  <si>
+    <t>RING</t>
+  </si>
+  <si>
+    <t>AUXILIARY</t>
+  </si>
+  <si>
+    <t>ARROW</t>
+  </si>
+  <si>
+    <t>0x00000000</t>
+  </si>
+  <si>
+    <t>0x00000001</t>
+  </si>
+  <si>
+    <t>0x00000002</t>
+  </si>
+  <si>
+    <t>0x00000003</t>
+  </si>
+  <si>
+    <t>0x00000004</t>
+  </si>
+  <si>
+    <t>CONSUME   | 0x00000100</t>
+  </si>
+  <si>
+    <t>0x10000000</t>
+  </si>
+  <si>
+    <t>EQUIPMENT | 0x00000100</t>
+  </si>
+  <si>
+    <t>EQUIPMENT | 0x00000200</t>
+  </si>
+  <si>
+    <t>EQUIPMENT | 0x00000400</t>
+  </si>
+  <si>
+    <t>EQUIPMENT | 0x00000800</t>
+  </si>
+  <si>
+    <t>EQUIPMENT | 0x00001000</t>
+  </si>
+  <si>
+    <t>EQUIPMENT | 0x00002000</t>
+  </si>
+  <si>
+    <t>EQUIPMENT | 0x00004000</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>SPEAR</t>
+  </si>
+  <si>
+    <t>BOW</t>
+  </si>
+  <si>
+    <t>FAN</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +201,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -128,8 +237,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF18F3C-64BA-4578-B1EB-62F11CEBE98C}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -561,6 +673,199 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FF91FD-C4B3-443D-A8F3-AB1BBBDCFB6C}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4D32B2-65FD-4D69-BE2B-006624230DBE}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B0CA35-8193-4C21-956C-3B80AB0B49C1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -600,7 +905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD82176D-405E-4922-A91A-D7DD7C09FD38}">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/resources/table/enum.item.xlsx
+++ b/resources/table/enum.item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyeon\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C2CF7F-318D-4552-9E10-3B6F031D4CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B368EF-54E7-4E98-BAAA-867AF49AFDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{16E011AE-D02E-4FC8-8F56-7E58FFC8504B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" firstSheet="1" activeTab="7" xr2:uid="{16E011AE-D02E-4FC8-8F56-7E58FFC8504B}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM_TYPE" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="WEAPON_TYPE" sheetId="5" r:id="rId3"/>
     <sheet name="BUNDLE_TYPE" sheetId="2" r:id="rId4"/>
     <sheet name="DEATH_PENALTY" sheetId="3" r:id="rId5"/>
+    <sheet name="ITEM_DELETE_TYPE" sheetId="6" r:id="rId6"/>
+    <sheet name="EQUIPMENT_PARTS" sheetId="7" r:id="rId7"/>
+    <sheet name="EQUIPMENT_POSITION" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +187,101 @@
   </si>
   <si>
     <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>REMOVED</t>
+  </si>
+  <si>
+    <t>DROP</t>
+  </si>
+  <si>
+    <t>EAT</t>
+  </si>
+  <si>
+    <t>SMOKE</t>
+  </si>
+  <si>
+    <t>THROW</t>
+  </si>
+  <si>
+    <t>SHOOT</t>
+  </si>
+  <si>
+    <t>REDUCE</t>
+  </si>
+  <si>
+    <t>STICK</t>
+  </si>
+  <si>
+    <t>DECAY</t>
+  </si>
+  <si>
+    <t>GIVE</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>DESTROY</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>0x06</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>0x0D</t>
+  </si>
+  <si>
+    <t>LEFT_HAND</t>
+  </si>
+  <si>
+    <t>RIGHT_HAND</t>
+  </si>
+  <si>
+    <t>LEFT_AUX</t>
+  </si>
+  <si>
+    <t>RIGHT_AUX</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -810,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4D32B2-65FD-4D69-BE2B-006624230DBE}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -943,4 +1041,252 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8035CA-E792-47A7-9804-06EA2D488E89}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B6607E-5A54-4B05-82BB-F741A474A6E2}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="1">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3E49B4-FFDC-4093-BD26-0DEF09BBAD53}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/table/enum.item.xlsx
+++ b/resources/table/enum.item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyeon\fb\resources\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B368EF-54E7-4E98-BAAA-867AF49AFDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEAF7BB-F92B-45F9-B050-85D8D80B40DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" firstSheet="1" activeTab="7" xr2:uid="{16E011AE-D02E-4FC8-8F56-7E58FFC8504B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{16E011AE-D02E-4FC8-8F56-7E58FFC8504B}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM_TYPE" sheetId="1" r:id="rId1"/>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8035CA-E792-47A7-9804-06EA2D488E89}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1263,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3E49B4-FFDC-4093-BD26-0DEF09BBAD53}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/resources/table/enum.item.xlsx
+++ b/resources/table/enum.item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEAF7BB-F92B-45F9-B050-85D8D80B40DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD0FFDB-CB3B-4582-843D-F106117693F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{16E011AE-D02E-4FC8-8F56-7E58FFC8504B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16E011AE-D02E-4FC8-8F56-7E58FFC8504B}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM_TYPE" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +281,10 @@
   </si>
   <si>
     <t>RIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF18F3C-64BA-4578-B1EB-62F11CEBE98C}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -694,7 +698,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -702,7 +706,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -710,7 +714,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -718,7 +722,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -726,7 +730,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -734,7 +738,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -742,7 +746,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -750,7 +754,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -758,10 +762,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1047,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8035CA-E792-47A7-9804-06EA2D488E89}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
